--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862022.7930958354</v>
+        <v>936337.0586753302</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111182</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205211</v>
+        <v>15478922.45806425</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7783753.27382956</v>
+        <v>6091161.175389397</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>87.7061602166668</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.13285199009043</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>140.446300763479</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -995,10 +995,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>73.82728932459786</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>214.0077506398264</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>41.3440244574145</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>126.1019530050337</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>237.2391983702847</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>74.93368842035943</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>7.617149799960769</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>96.53356339383433</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
         <v>109.1906224126114</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.66929392497717</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>234.1536680083896</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969023</v>
+        <v>148.813255630964</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>167.8074511728807</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>188.2740904379873</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>10.27077547947476</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>306.4549242895717</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>262.389835846216</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,19 +1928,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>2.325713838851879</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>93.6772036376864</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>193.5215339750158</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>228.3879067939457</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>40.95041987497291</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>147.9147832063965</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>99.78974769572881</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>33.64439241526551</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>405.7415719969023</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>184.0679759045704</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>31.94740982209909</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2402,22 +2402,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>140.5149798707072</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>96.778344323051</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>151.4745428196982</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>141.2507899137092</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>48.78373637412499</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>127.0665294872619</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206407878966</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.7727335375556</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>84.83738733132725</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>38.92321710192636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,16 +2876,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>8.644241788329595</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>190.7046336811536</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>38.97640474817497</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>99.78974769572881</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H32" t="n">
-        <v>218.2848660597145</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>148.5900260520737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>148.7606152753069</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>43.57367222540012</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="G34" t="n">
-        <v>73.36175976093796</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>399.888540289142</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>89.98174747814579</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>113.4883178883723</v>
+        <v>114.1942888468239</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>98.68313739545469</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
-        <v>405.7415719969023</v>
+        <v>17.95817021688028</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>201.140578342367</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3584,13 +3584,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>25.7255429759914</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>113.4883178883723</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>69.01670059309966</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>284.8885100734352</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>94.71041441558015</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>128.5517364212871</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>19.18822243440155</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>108.4265613664273</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>17.95817021688029</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4058,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>139.4577222705008</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.58549992554</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>502.8591282797204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,10 +4418,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>494.3473184075753</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C5" t="n">
-        <v>494.3473184075753</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D5" t="n">
-        <v>494.3473184075753</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E5" t="n">
-        <v>494.3473184075753</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>494.3473184075753</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>494.3473184075753</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>494.3473184075753</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X5" t="n">
-        <v>494.3473184075753</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y5" t="n">
-        <v>494.3473184075753</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508.2152912359765</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C6" t="n">
-        <v>508.2152912359765</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="D6" t="n">
-        <v>508.2152912359765</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="E6" t="n">
-        <v>508.2152912359765</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4676,22 +4676,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V6" t="n">
-        <v>716.0667914415093</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W6" t="n">
-        <v>716.0667914415093</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X6" t="n">
-        <v>508.2152912359765</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.2152912359765</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4758,19 +4758,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>703.5712627491056</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>421.0696464340549</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C9" t="n">
-        <v>421.0696464340549</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D9" t="n">
-        <v>272.1352367728036</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E9" t="n">
-        <v>272.1352367728036</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F9" t="n">
-        <v>272.1352367728036</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>836.6814454045416</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>836.6814454045416</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W9" t="n">
-        <v>836.6814454045416</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X9" t="n">
-        <v>628.8299451990088</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y9" t="n">
-        <v>421.0696464340549</v>
+        <v>325.7954424002585</v>
       </c>
     </row>
     <row r="10">
@@ -5001,7 +5001,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>871.5908811918299</v>
+        <v>862.9006896624076</v>
       </c>
       <c r="C11" t="n">
-        <v>871.5908811918299</v>
+        <v>493.9381727219958</v>
       </c>
       <c r="D11" t="n">
-        <v>871.5908811918299</v>
+        <v>493.9381727219958</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5908811918299</v>
+        <v>108.1499201237516</v>
       </c>
       <c r="F11" t="n">
-        <v>871.5908811918299</v>
+        <v>108.1499201237516</v>
       </c>
       <c r="G11" t="n">
-        <v>461.7509094777872</v>
+        <v>108.1499201237516</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>108.1499201237516</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
@@ -5068,25 +5068,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>871.5908811918299</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W11" t="n">
-        <v>871.5908811918299</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X11" t="n">
-        <v>871.5908811918299</v>
+        <v>1249.500529726529</v>
       </c>
       <c r="Y11" t="n">
-        <v>871.5908811918299</v>
+        <v>1249.500529726529</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>389.1959433063021</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="C12" t="n">
-        <v>389.1959433063021</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="D12" t="n">
-        <v>240.2615336450509</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="E12" t="n">
-        <v>240.2615336450509</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2615336450509</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G12" t="n">
         <v>142.7528837522889</v>
@@ -5126,13 +5126,13 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>236.9655055809357</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>636.3836421851987</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N12" t="n">
-        <v>1038.067798462132</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O12" t="n">
         <v>1271.486777082839</v>
@@ -5147,25 +5147,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1254.561044051268</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U12" t="n">
-        <v>1254.561044051268</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V12" t="n">
-        <v>1019.408935819526</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W12" t="n">
-        <v>765.171579091324</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X12" t="n">
-        <v>765.171579091324</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y12" t="n">
-        <v>557.4112803263702</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="C13" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="D13" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="E13" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="F13" t="n">
-        <v>47.27679437084024</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>47.27679437084024</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>47.27679437084024</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
         <v>32.45932575975218</v>
@@ -5223,28 +5223,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T13" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U13" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V13" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="W13" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="X13" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1088.658125761969</v>
+        <v>568.563998187253</v>
       </c>
       <c r="C14" t="n">
-        <v>1088.658125761969</v>
+        <v>568.563998187253</v>
       </c>
       <c r="D14" t="n">
-        <v>1088.658125761969</v>
+        <v>568.563998187253</v>
       </c>
       <c r="E14" t="n">
-        <v>852.1392691878377</v>
+        <v>182.7757455890087</v>
       </c>
       <c r="F14" t="n">
-        <v>442.2992974737949</v>
+        <v>182.7757455890087</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528326</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U14" t="n">
-        <v>1088.658125761969</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V14" t="n">
-        <v>1088.658125761969</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="W14" t="n">
-        <v>1088.658125761969</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="X14" t="n">
-        <v>1088.658125761969</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="Y14" t="n">
-        <v>1088.658125761969</v>
+        <v>955.1638382513748</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>905.3741555651432</v>
+        <v>512.6843680194497</v>
       </c>
       <c r="C15" t="n">
-        <v>735.8716796329404</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="D15" t="n">
-        <v>586.9372699716891</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E15" t="n">
-        <v>427.6998149662337</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F15" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G15" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K15" t="n">
-        <v>201.1187329501917</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L15" t="n">
-        <v>498.8504879318548</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M15" t="n">
-        <v>898.2686245361178</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N15" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O15" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U15" t="n">
-        <v>1394.763620525087</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V15" t="n">
-        <v>1159.611512293345</v>
+        <v>910.7117171522425</v>
       </c>
       <c r="W15" t="n">
-        <v>905.3741555651432</v>
+        <v>720.5358682249826</v>
       </c>
       <c r="X15" t="n">
-        <v>905.3741555651432</v>
+        <v>512.6843680194497</v>
       </c>
       <c r="Y15" t="n">
-        <v>905.3741555651432</v>
+        <v>512.6843680194497</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975218</v>
+        <v>350.872080916612</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5460,28 +5460,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1088.658125761969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C17" t="n">
-        <v>1088.658125761969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D17" t="n">
-        <v>1088.658125761969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E17" t="n">
-        <v>1088.658125761969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1076971866441</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G17" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P17" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
         <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1088.658125761969</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U17" t="n">
-        <v>1088.658125761969</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="V17" t="n">
-        <v>1088.658125761969</v>
+        <v>792.5249240849539</v>
       </c>
       <c r="W17" t="n">
-        <v>1088.658125761969</v>
+        <v>792.5249240849539</v>
       </c>
       <c r="X17" t="n">
-        <v>1088.658125761969</v>
+        <v>419.059165823874</v>
       </c>
       <c r="Y17" t="n">
-        <v>1088.658125761969</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>910.3247089140674</v>
+        <v>355.7961189118244</v>
       </c>
       <c r="C18" t="n">
-        <v>735.8716796329404</v>
+        <v>181.3430896306974</v>
       </c>
       <c r="D18" t="n">
-        <v>586.9372699716891</v>
+        <v>181.3430896306974</v>
       </c>
       <c r="E18" t="n">
-        <v>427.6998149662337</v>
+        <v>181.3430896306974</v>
       </c>
       <c r="F18" t="n">
-        <v>281.1652569931187</v>
+        <v>34.80853165758236</v>
       </c>
       <c r="G18" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>934.1153971668621</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N18" t="n">
-        <v>1299.952780813052</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O18" t="n">
-        <v>1622.96628798761</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U18" t="n">
-        <v>1078.540045934135</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V18" t="n">
-        <v>1078.540045934135</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="W18" t="n">
-        <v>1078.540045934135</v>
+        <v>939.6232549023791</v>
       </c>
       <c r="X18" t="n">
-        <v>1078.540045934135</v>
+        <v>731.7717546968463</v>
       </c>
       <c r="Y18" t="n">
-        <v>1078.540045934135</v>
+        <v>524.0114559318924</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5697,28 +5697,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1169.527513020957</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C20" t="n">
-        <v>800.5649960805454</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D20" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E20" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011319</v>
@@ -5761,7 +5761,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5773,31 +5773,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T20" t="n">
-        <v>1400.222368368377</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U20" t="n">
-        <v>1169.527513020957</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V20" t="n">
-        <v>1169.527513020957</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="W20" t="n">
-        <v>1169.527513020957</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="X20" t="n">
-        <v>1169.527513020957</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="Y20" t="n">
-        <v>1169.527513020957</v>
+        <v>955.1638382513748</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>366.1498100463347</v>
+        <v>643.5169047271313</v>
       </c>
       <c r="C21" t="n">
-        <v>191.6967807652077</v>
+        <v>469.0638754460043</v>
       </c>
       <c r="D21" t="n">
-        <v>191.6967807652077</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975218</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>201.1187329501917</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L21" t="n">
-        <v>498.8504879318548</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>898.2686245361178</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N21" t="n">
-        <v>1299.952780813051</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O21" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R21" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U21" t="n">
-        <v>1173.163483952</v>
+        <v>1313.36606042582</v>
       </c>
       <c r="V21" t="n">
-        <v>938.0113757202573</v>
+        <v>1313.36606042582</v>
       </c>
       <c r="W21" t="n">
-        <v>683.7740189920557</v>
+        <v>1059.128703697618</v>
       </c>
       <c r="X21" t="n">
-        <v>534.3651470664026</v>
+        <v>851.2772034920852</v>
       </c>
       <c r="Y21" t="n">
-        <v>534.3651470664026</v>
+        <v>643.5169047271313</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.2570507049328</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="C22" t="n">
-        <v>133.2570507049328</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="D22" t="n">
-        <v>133.2570507049328</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="E22" t="n">
-        <v>133.2570507049328</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5940,22 +5940,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="W22" t="n">
-        <v>361.2466016029501</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="X22" t="n">
-        <v>133.2570507049328</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.2570507049328</v>
+        <v>327.2623668400557</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>852.1392691878377</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="C23" t="n">
-        <v>852.1392691878377</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="D23" t="n">
-        <v>852.1392691878377</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E23" t="n">
         <v>852.1392691878377</v>
@@ -5989,16 +5989,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6019,22 +6019,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1437.039039599154</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1183.202156531408</v>
+        <v>1590.696177056196</v>
       </c>
       <c r="V23" t="n">
-        <v>852.1392691878377</v>
+        <v>1590.696177056196</v>
       </c>
       <c r="W23" t="n">
-        <v>852.1392691878377</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="X23" t="n">
-        <v>852.1392691878377</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="Y23" t="n">
-        <v>852.1392691878377</v>
+        <v>1237.927521786082</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.9123550408792</v>
+        <v>720.1290724889419</v>
       </c>
       <c r="C24" t="n">
-        <v>32.45932575975219</v>
+        <v>545.6760432078149</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975219</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975219</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975219</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L24" t="n">
-        <v>534.697260562599</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M24" t="n">
-        <v>934.1153971668621</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6095,25 +6095,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1481.031964885885</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1280.128955991378</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U24" t="n">
-        <v>1280.128955991378</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V24" t="n">
-        <v>1044.976847759636</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="W24" t="n">
-        <v>790.739491031434</v>
+        <v>1096.104708273964</v>
       </c>
       <c r="X24" t="n">
-        <v>582.8879908259012</v>
+        <v>1096.104708273964</v>
       </c>
       <c r="Y24" t="n">
-        <v>375.1276920609473</v>
+        <v>888.3444095090099</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D25" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
         <v>32.45932575975219</v>
@@ -6150,7 +6150,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6180,19 +6180,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W25" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X25" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1249.500529726529</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C26" t="n">
-        <v>880.5380127861176</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D26" t="n">
-        <v>522.2723141793672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E26" t="n">
-        <v>522.2723141793672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F26" t="n">
-        <v>522.2723141793672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G26" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
@@ -6241,37 +6241,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O26" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P26" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q26" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1255.133762146432</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1112.456196577029</v>
       </c>
       <c r="W26" t="n">
-        <v>1622.966287987609</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="X26" t="n">
-        <v>1249.500529726529</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="Y26" t="n">
-        <v>1249.500529726529</v>
+        <v>759.6875413069145</v>
       </c>
     </row>
     <row r="27">
@@ -6290,67 +6290,67 @@
         <v>191.6967807652077</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M27" t="n">
-        <v>758.3581127497703</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N27" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O27" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q27" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R27" t="n">
-        <v>1573.689786599604</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S27" t="n">
-        <v>1406.18755155777</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T27" t="n">
-        <v>1205.284542663263</v>
+        <v>1327.114023160662</v>
       </c>
       <c r="U27" t="n">
-        <v>977.0818752007415</v>
+        <v>1098.911355698141</v>
       </c>
       <c r="V27" t="n">
-        <v>977.0818752007415</v>
+        <v>1098.911355698141</v>
       </c>
       <c r="W27" t="n">
-        <v>722.8445184725399</v>
+        <v>1098.911355698141</v>
       </c>
       <c r="X27" t="n">
-        <v>722.8445184725399</v>
+        <v>891.0598554926078</v>
       </c>
       <c r="Y27" t="n">
-        <v>515.0842197075859</v>
+        <v>683.2995567276539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C28" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D28" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E28" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F28" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6411,25 +6411,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>201.8802040902677</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V28" t="n">
-        <v>201.8802040902677</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W28" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X28" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1197.050067012451</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="C29" t="n">
-        <v>828.0875500720392</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D29" t="n">
-        <v>828.0875500720392</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E29" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F29" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G29" t="n">
         <v>32.45932575975219</v>
@@ -6478,37 +6478,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O29" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P29" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1537.271957349905</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1339.703357516929</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1116.959437897697</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.966287987609</v>
+        <v>1116.959437897697</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.966287987609</v>
+        <v>1116.959437897697</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.966287987609</v>
+        <v>764.1907826275826</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.966287987609</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="Y29" t="n">
-        <v>1583.649907076573</v>
+        <v>390.7250243665027</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>800.0311509215306</v>
+        <v>374.8813674082838</v>
       </c>
       <c r="C30" t="n">
-        <v>625.5781216404037</v>
+        <v>200.4283381271568</v>
       </c>
       <c r="D30" t="n">
-        <v>476.6437119791524</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E30" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F30" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G30" t="n">
         <v>32.45932575975219</v>
@@ -6542,52 +6542,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L30" t="n">
-        <v>256.6067387278474</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M30" t="n">
-        <v>656.0248753321104</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T30" t="n">
-        <v>1430.335344875333</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U30" t="n">
-        <v>1430.335344875333</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V30" t="n">
-        <v>1430.335344875333</v>
+        <v>958.7085033988385</v>
       </c>
       <c r="W30" t="n">
-        <v>1176.097988147131</v>
+        <v>958.7085033988385</v>
       </c>
       <c r="X30" t="n">
-        <v>968.2464879415986</v>
+        <v>750.8570031933057</v>
       </c>
       <c r="Y30" t="n">
-        <v>968.2464879415986</v>
+        <v>543.0967044283518</v>
       </c>
     </row>
     <row r="31">
@@ -6654,13 +6654,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975219</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X31" t="n">
         <v>32.45932575975219</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1072.629032884519</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C32" t="n">
-        <v>1072.629032884519</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D32" t="n">
-        <v>1072.629032884519</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E32" t="n">
-        <v>1072.629032884519</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F32" t="n">
-        <v>662.7890611704763</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G32" t="n">
-        <v>252.9490894564335</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975219</v>
@@ -6703,13 +6703,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6727,25 +6727,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T32" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U32" t="n">
-        <v>1425.397688154633</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="V32" t="n">
-        <v>1425.397688154633</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="W32" t="n">
-        <v>1072.629032884519</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="X32" t="n">
-        <v>1072.629032884519</v>
+        <v>1219.038469513729</v>
       </c>
       <c r="Y32" t="n">
-        <v>1072.629032884519</v>
+        <v>828.8991375379169</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>737.2005177245244</v>
+        <v>512.6843680194497</v>
       </c>
       <c r="C33" t="n">
-        <v>586.9372699716891</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="D33" t="n">
-        <v>586.9372699716891</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E33" t="n">
-        <v>427.6998149662337</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F33" t="n">
-        <v>281.1652569931187</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
         <v>32.45932575975219</v>
@@ -6779,52 +6779,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L33" t="n">
-        <v>256.6067387278474</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M33" t="n">
-        <v>656.0248753321104</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609044</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O33" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1578.952477658923</v>
       </c>
       <c r="S33" t="n">
-        <v>1374.066492846507</v>
+        <v>1578.952477658923</v>
       </c>
       <c r="T33" t="n">
-        <v>1173.163483952</v>
+        <v>1378.049468764416</v>
       </c>
       <c r="U33" t="n">
-        <v>944.9608164894784</v>
+        <v>1378.049468764416</v>
       </c>
       <c r="V33" t="n">
-        <v>944.9608164894784</v>
+        <v>1142.897360532673</v>
       </c>
       <c r="W33" t="n">
-        <v>944.9608164894784</v>
+        <v>888.6600038044717</v>
       </c>
       <c r="X33" t="n">
-        <v>944.9608164894784</v>
+        <v>888.6600038044717</v>
       </c>
       <c r="Y33" t="n">
-        <v>737.2005177245244</v>
+        <v>680.8997050395178</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.5621133970633</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C34" t="n">
-        <v>106.5621133970633</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D34" t="n">
-        <v>106.5621133970633</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E34" t="n">
-        <v>106.5621133970633</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F34" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
         <v>32.45932575975219</v>
@@ -6894,16 +6894,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>106.5621133970633</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>106.5621133970633</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X34" t="n">
-        <v>106.5621133970633</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.5621133970633</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1145.475793905159</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="C35" t="n">
-        <v>776.5132769647469</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="D35" t="n">
-        <v>418.2475783579964</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975219</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975219</v>
+        <v>436.3871442336331</v>
       </c>
       <c r="G35" t="n">
         <v>32.45932575975219</v>
@@ -6946,7 +6946,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6979,10 +6979,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="X35" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y35" t="n">
-        <v>1532.07563396928</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L36" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>934.1153971668621</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082808</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7043,25 +7043,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1508.3316234539</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U36" t="n">
-        <v>1280.128955991378</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V36" t="n">
-        <v>1044.976847759636</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W36" t="n">
-        <v>790.739491031434</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X36" t="n">
-        <v>582.8879908259012</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y36" t="n">
-        <v>375.1276920609473</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="37">
@@ -7122,13 +7122,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V37" t="n">
         <v>32.45932575975219</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1197.050067012451</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="C38" t="n">
-        <v>828.0875500720392</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="D38" t="n">
-        <v>828.0875500720392</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="E38" t="n">
-        <v>442.299297473795</v>
+        <v>460.4388633494316</v>
       </c>
       <c r="F38" t="n">
-        <v>442.299297473795</v>
+        <v>50.59889163538884</v>
       </c>
       <c r="G38" t="n">
         <v>32.45932575975219</v>
@@ -7174,22 +7174,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
@@ -7204,22 +7204,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>1197.050067012451</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W38" t="n">
-        <v>1197.050067012451</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X38" t="n">
-        <v>1197.050067012451</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y38" t="n">
-        <v>1197.050067012451</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>206.9123550408792</v>
+        <v>207.3791323664493</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975219</v>
+        <v>207.3791323664493</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975219</v>
+        <v>58.44472270519805</v>
       </c>
       <c r="E39" t="n">
         <v>32.45932575975219</v>
@@ -7259,16 +7259,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="L39" t="n">
-        <v>256.6067387278474</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>656.0248753321104</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609044</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P39" t="n">
         <v>1622.966287987609</v>
@@ -7280,25 +7280,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1508.3316234539</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1508.3316234539</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U39" t="n">
-        <v>1280.128955991378</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V39" t="n">
-        <v>1044.976847759636</v>
+        <v>791.2062683570041</v>
       </c>
       <c r="W39" t="n">
-        <v>790.739491031434</v>
+        <v>791.2062683570041</v>
       </c>
       <c r="X39" t="n">
-        <v>582.8879908259012</v>
+        <v>583.3547681514713</v>
       </c>
       <c r="Y39" t="n">
-        <v>375.1276920609473</v>
+        <v>375.5944693865173</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="G40" t="n">
         <v>32.45932575975219</v>
@@ -7359,25 +7359,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T40" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U40" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V40" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="W40" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="X40" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="Y40" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1047.453713098263</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="C41" t="n">
-        <v>678.4911961578514</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="D41" t="n">
-        <v>320.2254975511009</v>
+        <v>487.9614173409254</v>
       </c>
       <c r="E41" t="n">
-        <v>320.2254975511009</v>
+        <v>102.1731647426811</v>
       </c>
       <c r="F41" t="n">
-        <v>320.2254975511009</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G41" t="n">
-        <v>320.2254975511009</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H41" t="n">
         <v>32.45932575975219</v>
@@ -7414,10 +7414,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
         <v>838.8947028941457</v>
@@ -7441,22 +7441,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>1047.453713098263</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X41" t="n">
-        <v>1047.453713098263</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y41" t="n">
-        <v>1047.453713098263</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>207.4617876008817</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="C42" t="n">
-        <v>207.4617876008817</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D42" t="n">
-        <v>207.4617876008817</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E42" t="n">
-        <v>207.4617876008817</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F42" t="n">
-        <v>207.4617876008817</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
@@ -7502,40 +7502,40 @@
         <v>934.1153971668621</v>
       </c>
       <c r="N42" t="n">
-        <v>1335.799553443796</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1340.665718993834</v>
+        <v>1493.116049178228</v>
       </c>
       <c r="U42" t="n">
-        <v>1112.463051531313</v>
+        <v>1264.913381715707</v>
       </c>
       <c r="V42" t="n">
-        <v>877.31094329957</v>
+        <v>1029.761273483964</v>
       </c>
       <c r="W42" t="n">
-        <v>623.0735865713684</v>
+        <v>775.5239167557625</v>
       </c>
       <c r="X42" t="n">
-        <v>415.2220863658356</v>
+        <v>567.6724165502296</v>
       </c>
       <c r="Y42" t="n">
-        <v>207.4617876008817</v>
+        <v>359.9121177852757</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E43" t="n">
-        <v>213.333508020557</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F43" t="n">
-        <v>213.333508020557</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G43" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H43" t="n">
         <v>32.45932575975219</v>
@@ -7596,25 +7596,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>787.2100952984081</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C44" t="n">
-        <v>418.2475783579964</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D44" t="n">
-        <v>418.2475783579964</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E44" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F44" t="n">
         <v>32.45932575975219</v>
@@ -7651,10 +7651,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941457</v>
@@ -7663,10 +7663,10 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.966287987609</v>
@@ -7684,16 +7684,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1513.444508829602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>1160.675853559488</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>787.2100952984081</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="Y44" t="n">
-        <v>787.2100952984081</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>288.85934770015</v>
+        <v>322.2601215528225</v>
       </c>
       <c r="C45" t="n">
-        <v>114.4063184190229</v>
+        <v>322.2601215528225</v>
       </c>
       <c r="D45" t="n">
-        <v>114.4063184190229</v>
+        <v>173.3257118915712</v>
       </c>
       <c r="E45" t="n">
-        <v>114.4063184190229</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F45" t="n">
-        <v>114.4063184190229</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>934.1153971668621</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7754,25 +7754,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1422.063279093103</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U45" t="n">
-        <v>1193.860611630581</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="V45" t="n">
-        <v>958.7085033988383</v>
+        <v>992.1092772515108</v>
       </c>
       <c r="W45" t="n">
-        <v>704.4711466706367</v>
+        <v>737.8719205233092</v>
       </c>
       <c r="X45" t="n">
-        <v>496.6196464651039</v>
+        <v>530.0204203177764</v>
       </c>
       <c r="Y45" t="n">
-        <v>288.85934770015</v>
+        <v>322.2601215528225</v>
       </c>
     </row>
     <row r="46">
@@ -7836,19 +7836,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W46" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X46" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y46" t="n">
         <v>32.45932575975219</v>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8774,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O12" t="n">
-        <v>303.3627954849604</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>257.2956640563642</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878806</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>418.8785602873041</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>73.77211287831322</v>
+        <v>133.7959972113199</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>257.2956640563642</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304796</v>
+        <v>380.7598033349567</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>99.73813450275541</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>103.5056817990678</v>
       </c>
       <c r="N24" t="n">
-        <v>174.18790452568</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210661</v>
       </c>
       <c r="N27" t="n">
         <v>455.0874215304797</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>296.5127271079359</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210661</v>
       </c>
       <c r="N30" t="n">
         <v>455.0874215304797</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,22 +10427,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>296.5127271079359</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>112.9628022719299</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>63.84875129258623</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,7 +10907,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L39" t="n">
-        <v>296.5127271079359</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q39" t="n">
         <v>99.73813450275541</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119838</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>418.8785602873038</v>
       </c>
       <c r="O42" t="n">
-        <v>247.3143048004597</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>73.77211287831321</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>63.84875129258599</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,34 +22704,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.622911629904848</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,34 +22941,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>125.1891591924528</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23159,16 +23159,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,34 +23178,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>96.2011173454359</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>112.8257810902105</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>150.0279306554402</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>40.49468611458713</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.33204381001866</v>
       </c>
       <c r="G13" t="n">
         <v>167.7266695472104</v>
@@ -23436,7 +23436,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>132.8326641331036</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
         <v>74.67247646141476</v>
@@ -23463,10 +23463,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>147.7767020638722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.97193213363164</v>
+        <v>265.9002484995699</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23576,10 +23576,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>4.901047815435049</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
         <v>78.54202280713804</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -23636,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>63.42089272293228</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>135.1502725434565</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>74.67247646141476</v>
@@ -23700,13 +23700,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
-        <v>66.72592374140285</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
         <v>286.3046124576955</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>100.4211214521397</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>65.36242262391892</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23816,19 +23816,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>134.7025356695696</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>132.2434371502102</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23937,22 +23937,22 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>59.32005692394495</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>189.2123076884648</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>22.9106074431227</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>106.4946456896658</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>57.85820199708093</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>45.63130032720244</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.7266695472104</v>
@@ -24180,7 +24180,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>193.1718732740458</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>1.1344737448091</v>
@@ -24259,16 +24259,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>36.44850451846943</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>219.3511044149693</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24290,22 +24290,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,22 +24335,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>25.31223282070857</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>154.9166388378686</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>107.4575578983942</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24387,7 +24387,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R25" t="n">
         <v>165.4090611368575</v>
@@ -24420,7 +24420,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>263.2389613108357</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
@@ -24499,16 +24499,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>186.5014685564257</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>31.79984812415052</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>71.82744931829973</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,10 +24584,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
         <v>159.8772180037952</v>
@@ -24651,19 +24651,19 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>61.63766533429782</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>28.0182990143702</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>347.3147215541272</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24764,16 +24764,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>138.8008237763092</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
@@ -24812,22 +24812,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>8.189345124408106</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24894,16 +24894,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>247.3282077095205</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>8.971932133631583</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1554496560061</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24967,25 +24967,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>221.1410746263954</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>23.94788371300885</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
         <v>78.54202280713804</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.0099122728754</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>106.4446432747563</v>
       </c>
       <c r="G34" t="n">
-        <v>94.36490978627245</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25134,10 +25134,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>14.82496384139188</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>279.7493532003232</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>85.40566091718938</v>
+        <v>84.69968995873781</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
-        <v>212.9428526967575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G38" t="n">
-        <v>8.971932133631583</v>
+        <v>396.7553339136537</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
@@ -25444,13 +25444,13 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>126.6116801277679</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,13 +25472,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>131.9195374794095</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25520,10 +25520,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>52.33889480304347</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.14884278648262</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>61.63766533429784</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25599,10 +25599,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>337.8593451486118</v>
       </c>
       <c r="G41" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>48.55180564228539</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -25681,7 +25681,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25715,19 +25715,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>42.31783509284131</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>70.34224238427456</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>148.5384471128089</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
         <v>147.5019580580808</v>
@@ -25836,7 +25836,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>180.4339941236784</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
@@ -25924,16 +25924,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>219.3256971037076</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>351.7729304615887</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,25 +25946,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>18.18735818490012</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4427495828814</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>119.9015159566401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1027088.016695333</v>
+        <v>440623.5069333902</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1027088.016695333</v>
+        <v>440623.5069333902</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1027088.016695333</v>
+        <v>440623.5069333902</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>555429.7942759159</v>
+        <v>555429.7942759162</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>555429.7942759159</v>
+        <v>555429.7942759163</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>555429.7942759163</v>
+        <v>555429.7942759158</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>555429.7942759158</v>
+        <v>555429.7942759163</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>555429.7942759162</v>
+        <v>555429.7942759158</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>555429.7942759158</v>
+        <v>555429.7942759159</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>555429.7942759159</v>
+        <v>555429.7942759158</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>555429.7942759162</v>
+        <v>555429.7942759157</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>555429.7942759162</v>
+        <v>555429.7942759158</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="E2" t="n">
-        <v>234991.7867710671</v>
+        <v>234991.7867710672</v>
       </c>
       <c r="F2" t="n">
         <v>234991.7867710671</v>
@@ -26337,19 +26337,19 @@
         <v>234991.7867710672</v>
       </c>
       <c r="J2" t="n">
-        <v>234991.7867710671</v>
+        <v>234991.7867710672</v>
       </c>
       <c r="K2" t="n">
-        <v>234991.7867710671</v>
+        <v>234991.7867710672</v>
       </c>
       <c r="L2" t="n">
-        <v>234991.7867710671</v>
+        <v>234991.7867710672</v>
       </c>
       <c r="M2" t="n">
-        <v>234991.7867710671</v>
+        <v>234991.7867710672</v>
       </c>
       <c r="N2" t="n">
-        <v>234991.7867710671</v>
+        <v>234991.7867710672</v>
       </c>
       <c r="O2" t="n">
         <v>234991.7867710672</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320962.9529903556</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="C4" t="n">
-        <v>320962.9529903556</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>320962.9529903556</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>43026.40002390871</v>
+        <v>43026.40002390872</v>
       </c>
       <c r="F4" t="n">
         <v>43026.40002390872</v>
@@ -26481,19 +26481,19 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="G5" t="n">
         <v>27864.35291375756</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>27864.35291375757</v>
-      </c>
-      <c r="H5" t="n">
-        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="K5" t="n">
         <v>27864.35291375757</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1559.32013969095</v>
+        <v>10486.81307125602</v>
       </c>
       <c r="C6" t="n">
-        <v>82328.75167123863</v>
+        <v>91256.24460280374</v>
       </c>
       <c r="D6" t="n">
-        <v>82328.75167123869</v>
+        <v>91256.2446028038</v>
       </c>
       <c r="E6" t="n">
-        <v>-12683.73568522271</v>
+        <v>-3823.596231183519</v>
       </c>
       <c r="F6" t="n">
-        <v>154256.4344400241</v>
+        <v>163116.5738940632</v>
       </c>
       <c r="G6" t="n">
-        <v>154256.4344400241</v>
+        <v>163116.5738940631</v>
       </c>
       <c r="H6" t="n">
-        <v>154256.4344400241</v>
+        <v>163116.5738940633</v>
       </c>
       <c r="I6" t="n">
-        <v>154256.4344400241</v>
+        <v>163116.5738940632</v>
       </c>
       <c r="J6" t="n">
-        <v>91196.49184091788</v>
+        <v>100056.6312949569</v>
       </c>
       <c r="K6" t="n">
-        <v>154256.4344400241</v>
+        <v>163116.5738940632</v>
       </c>
       <c r="L6" t="n">
-        <v>154256.4344400241</v>
+        <v>163116.5738940632</v>
       </c>
       <c r="M6" t="n">
-        <v>113205.7365775762</v>
+        <v>122065.8760316153</v>
       </c>
       <c r="N6" t="n">
-        <v>154256.4344400241</v>
+        <v>163116.5738940632</v>
       </c>
       <c r="O6" t="n">
-        <v>154256.4344400242</v>
+        <v>163116.5738940632</v>
       </c>
       <c r="P6" t="n">
-        <v>154256.4344400241</v>
+        <v>163116.5738940632</v>
       </c>
     </row>
   </sheetData>
@@ -26758,7 +26758,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="J3" t="n">
         <v>146.571804419537</v>
@@ -26804,22 +26804,22 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="H4" t="n">
         <v>405.7415719969024</v>
-      </c>
-      <c r="H4" t="n">
-        <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="K4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="L4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="M4" t="n">
         <v>405.7415719969023</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>294.2242098555949</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,34 +27536,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.1499461679509</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>155.2128009177461</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27718,7 +27718,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>158.9732978248274</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.5329991677731</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27815,34 +27815,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>201.2949868753087</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>99.83942907594114</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28010,34 +28010,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,34 +28052,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I23" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J23" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438474</v>
@@ -32724,16 +32724,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
@@ -32742,7 +32742,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O24" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,40 +32861,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O25" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -34786,13 +34786,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O3" t="n">
         <v>226.4350751681936</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35494,16 +35494,16 @@
         <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O12" t="n">
-        <v>235.7767460815218</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
-        <v>170.3630375661005</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054592</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
@@ -35743,10 +35743,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
@@ -35974,16 +35974,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>369.5327107537267</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>60.02388433300664</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>170.3630375661005</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
@@ -36211,13 +36211,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>331.4139538013793</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726433</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>177.5326105223149</v>
@@ -36445,19 +36445,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366293</v>
+        <v>41.25328128569715</v>
       </c>
       <c r="N24" t="n">
-        <v>124.8420549921026</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354744</v>
@@ -36530,10 +36530,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680312</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>403.4526632366293</v>
+        <v>12.21399299873596</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L30" t="n">
-        <v>226.4115282506012</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>403.4526632366293</v>
+        <v>12.21399299873596</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36931,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
-        <v>226.4115282506012</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O33" t="n">
-        <v>326.276269873291</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="P33" t="n">
         <v>244.6906557616239</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37396,16 +37396,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>226.4115282506012</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366293</v>
@@ -37639,7 +37639,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N41" t="n">
-        <v>313.0722467132383</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O41" t="n">
         <v>249.9811662707763</v>
@@ -37870,16 +37870,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>369.5327107537265</v>
       </c>
       <c r="O42" t="n">
-        <v>179.7282553970212</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680266</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38107,16 +38107,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
-        <v>14.50290175900862</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.690655761624</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
